--- a/medicine/Médecine vétérinaire/Anne_Alaphilippe/Anne_Alaphilippe.xlsx
+++ b/medicine/Médecine vétérinaire/Anne_Alaphilippe/Anne_Alaphilippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Alaphilippe est une joueuse internationale française de rugby à XV, née le 28 décembre 1965, de 1,73 m pour 68 kg, internationale et capitaine de l'équipe de France notamment joué aux Pachys d'Herm.
 Elle exerce la profession de vétérinaire.
@@ -512,13 +524,12 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jouant au poste de troisième ligne, Anne Alaphilippe est membre et capitaine de l'équipe de France[1].
-En club
-Saint-Orens
-Limoges 19.. - 2001
-Pachys d'Herm 2001-2002</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jouant au poste de troisième ligne, Anne Alaphilippe est membre et capitaine de l'équipe de France.
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En club</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Saint-Orens
+Limoges 19.. - 2001
+Pachys d'Herm 2001-2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Alaphilippe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Alaphilippe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sélectionnée en équipe de France à 42 reprises.
 Championne d'Europe en 1999, 2000
